--- a/Code/Results/Cases/Case_1_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.846411605063111</v>
+        <v>0.9744635030973541</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.007331917236463426</v>
+        <v>0.004378622681091571</v>
       </c>
       <c r="E2">
-        <v>0.8289633014956692</v>
+        <v>0.4483793404404963</v>
       </c>
       <c r="F2">
-        <v>1.92129657605345</v>
+        <v>0.9127886060284141</v>
       </c>
       <c r="G2">
-        <v>2.069683947461044</v>
+        <v>0.8329604128828976</v>
       </c>
       <c r="H2">
-        <v>1.023326624741031</v>
+        <v>0.7074198953251312</v>
       </c>
       <c r="I2">
-        <v>0.2011234785815512</v>
+        <v>0.6728402859271183</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.115146358636167</v>
+        <v>0.4009955759892705</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.147749718617689</v>
+        <v>1.311147546546579</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.608352841124798</v>
+        <v>0.9073526923759516</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006268969010182701</v>
+        <v>0.004253294322388967</v>
       </c>
       <c r="E3">
-        <v>0.7411054311786458</v>
+        <v>0.4222477322751601</v>
       </c>
       <c r="F3">
-        <v>1.661004812973346</v>
+        <v>0.8536296548066389</v>
       </c>
       <c r="G3">
-        <v>1.78188789386985</v>
+        <v>0.7651171033127184</v>
       </c>
       <c r="H3">
-        <v>0.8949653742329247</v>
+        <v>0.6817852656444643</v>
       </c>
       <c r="I3">
-        <v>0.222620577446162</v>
+        <v>0.6863084089886957</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9646310918586778</v>
+        <v>0.3591094937132766</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.121548775036032</v>
+        <v>1.305393740739518</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.463024092165057</v>
+        <v>0.8663852883026948</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.005671382087893306</v>
+        <v>0.004183880374812432</v>
       </c>
       <c r="E4">
-        <v>0.6875461858813594</v>
+        <v>0.406099570183585</v>
       </c>
       <c r="F4">
-        <v>1.505272004543343</v>
+        <v>0.8180078375319937</v>
       </c>
       <c r="G4">
-        <v>1.609622276359772</v>
+        <v>0.7240857060200199</v>
       </c>
       <c r="H4">
-        <v>0.8185050796619748</v>
+        <v>0.6665915257456732</v>
       </c>
       <c r="I4">
-        <v>0.23680093102847</v>
+        <v>0.6950605011788689</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8731052313433736</v>
+        <v>0.333474467128184</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.106556654082809</v>
+        <v>1.302396190758202</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.403978635549407</v>
+        <v>0.84975164757887</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005439935070205237</v>
+        <v>0.004157450779707972</v>
       </c>
       <c r="E5">
-        <v>0.6657933635866158</v>
+        <v>0.3994930833390313</v>
       </c>
       <c r="F5">
-        <v>1.442706146501081</v>
+        <v>0.8036660063232972</v>
       </c>
       <c r="G5">
-        <v>1.54039186508561</v>
+        <v>0.7075195461595172</v>
       </c>
       <c r="H5">
-        <v>0.7878692085552643</v>
+        <v>0.6605361874273399</v>
       </c>
       <c r="I5">
-        <v>0.2428152162187214</v>
+        <v>0.6987481819951631</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8359948635937258</v>
+        <v>0.323048803636965</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100714566734169</v>
+        <v>1.301309910960228</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.394183939436687</v>
+        <v>0.8469933477251743</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005402184316128711</v>
+        <v>0.00415317321596298</v>
       </c>
       <c r="E6">
-        <v>0.6621850816043136</v>
+        <v>0.3983945117879841</v>
       </c>
       <c r="F6">
-        <v>1.432367660066532</v>
+        <v>0.801295023036019</v>
       </c>
       <c r="G6">
-        <v>1.528950670086061</v>
+        <v>0.7047780014643195</v>
       </c>
       <c r="H6">
-        <v>0.7828117724710069</v>
+        <v>0.6595389002716558</v>
       </c>
       <c r="I6">
-        <v>0.2438278088862296</v>
+        <v>0.6993678281274223</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8298430001881343</v>
+        <v>0.3213188847081483</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.099760411231173</v>
+        <v>1.301137722497202</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.462227110140219</v>
+        <v>0.8661607134830831</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005668214035244645</v>
+        <v>0.004183516466351733</v>
       </c>
       <c r="E7">
-        <v>0.6872525539259939</v>
+        <v>0.4060105779893703</v>
       </c>
       <c r="F7">
-        <v>1.504424754677132</v>
+        <v>0.8178137155276062</v>
       </c>
       <c r="G7">
-        <v>1.608684872420525</v>
+        <v>0.7238616669987152</v>
       </c>
       <c r="H7">
-        <v>0.8180898863074617</v>
+        <v>0.6665093111498663</v>
       </c>
       <c r="I7">
-        <v>0.2368811015909564</v>
+        <v>0.6951097443734504</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8726040366223344</v>
+        <v>0.3333337788231461</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.106476793596244</v>
+        <v>1.302380992354756</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.764133055277483</v>
+        <v>0.9512745869183732</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006952857228824882</v>
+        <v>0.004333821685982286</v>
       </c>
       <c r="E8">
-        <v>0.79857447225762</v>
+        <v>0.4393905719355971</v>
       </c>
       <c r="F8">
-        <v>1.830616831439926</v>
+        <v>0.8922435600163254</v>
       </c>
       <c r="G8">
-        <v>1.969436599552722</v>
+        <v>0.8094367925291124</v>
       </c>
       <c r="H8">
-        <v>0.9785351623781082</v>
+        <v>0.6984670916660889</v>
       </c>
       <c r="I8">
-        <v>0.208325214351917</v>
+        <v>0.6773837956157704</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.06304045788454</v>
+        <v>0.3865359103829462</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.138483228489761</v>
+        <v>1.309052905668224</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.36455950234722</v>
+        <v>1.120050785307001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009999863680793197</v>
+        <v>0.004690138858649107</v>
       </c>
       <c r="E9">
-        <v>1.021192344439768</v>
+        <v>0.5040334991671216</v>
       </c>
       <c r="F9">
-        <v>2.509329458289869</v>
+        <v>1.043877345674346</v>
       </c>
       <c r="G9">
-        <v>2.719574445888895</v>
+        <v>0.9823328087415177</v>
       </c>
       <c r="H9">
-        <v>1.315357989362326</v>
+        <v>0.7655212618909104</v>
       </c>
       <c r="I9">
-        <v>0.1606446724249579</v>
+        <v>0.6464620844305626</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.445421274129728</v>
+        <v>0.4915356429366113</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.210337193835088</v>
+        <v>1.326358302800884</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.81351622303697</v>
+        <v>1.245166245880966</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01270710591801461</v>
+        <v>0.004991929501759529</v>
       </c>
       <c r="E10">
-        <v>1.189441792172616</v>
+        <v>0.5510402301691499</v>
       </c>
       <c r="F10">
-        <v>3.042251624946346</v>
+        <v>1.158903968361727</v>
       </c>
       <c r="G10">
-        <v>3.308531503255551</v>
+        <v>1.112647672837909</v>
       </c>
       <c r="H10">
-        <v>1.581905377144039</v>
+        <v>0.8175383477593527</v>
       </c>
       <c r="I10">
-        <v>0.1314898620148153</v>
+        <v>0.626096502148286</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.734750333900593</v>
+        <v>0.5691103904212582</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.26927215359494</v>
+        <v>1.341615317907696</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.020150994503979</v>
+        <v>1.302322796915007</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01408028230179426</v>
+        <v>0.005138449496261188</v>
       </c>
       <c r="E11">
-        <v>1.267567593213244</v>
+        <v>0.5723218452618397</v>
       </c>
       <c r="F11">
-        <v>3.294879880544954</v>
+        <v>1.21205451038665</v>
       </c>
       <c r="G11">
-        <v>3.587776792260286</v>
+        <v>1.172687172392443</v>
       </c>
       <c r="H11">
-        <v>1.708768118107514</v>
+        <v>0.8418175546848943</v>
       </c>
       <c r="I11">
-        <v>0.119702984961128</v>
+        <v>0.6173451677675015</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.868963528634794</v>
+        <v>0.6045003337608534</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.297563327904612</v>
+        <v>1.349102077971622</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.098809253461411</v>
+        <v>1.324000521203118</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01462466518587391</v>
+        <v>0.005195304905068809</v>
       </c>
       <c r="E12">
-        <v>1.297437569167286</v>
+        <v>0.5803660988974997</v>
       </c>
       <c r="F12">
-        <v>3.392279436463411</v>
+        <v>1.23230245313178</v>
       </c>
       <c r="G12">
-        <v>3.695452394815277</v>
+        <v>1.195534819822853</v>
       </c>
       <c r="H12">
-        <v>1.757757529576708</v>
+        <v>0.8511014210631345</v>
       </c>
       <c r="I12">
-        <v>0.1154707553786807</v>
+        <v>0.6141052908263411</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.920234128338848</v>
+        <v>0.617916359154691</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.308502588157438</v>
+        <v>1.352015116055796</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.081849426414294</v>
+        <v>1.319330346708512</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01450626618805018</v>
+        <v>0.005182998378231218</v>
       </c>
       <c r="E13">
-        <v>1.29099082135626</v>
+        <v>0.5786342751075892</v>
       </c>
       <c r="F13">
-        <v>3.371220845522799</v>
+        <v>1.227936276252535</v>
       </c>
       <c r="G13">
-        <v>3.672171310169489</v>
+        <v>1.190609142692921</v>
       </c>
       <c r="H13">
-        <v>1.747162061678949</v>
+        <v>0.8490979582183797</v>
       </c>
       <c r="I13">
-        <v>0.1163716337655192</v>
+        <v>0.6147997577506406</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.90917092076802</v>
+        <v>0.6150263256179187</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.306136353297745</v>
+        <v>1.351384282941297</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.026613635734918</v>
+        <v>1.304105564263239</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01412455463974283</v>
+        <v>0.005143099286691211</v>
       </c>
       <c r="E14">
-        <v>1.270018930180996</v>
+        <v>0.5729839438815532</v>
       </c>
       <c r="F14">
-        <v>3.30285655544597</v>
+        <v>1.213717881975356</v>
       </c>
       <c r="G14">
-        <v>3.596594721833554</v>
+        <v>1.174564600861288</v>
       </c>
       <c r="H14">
-        <v>1.712778588250387</v>
+        <v>0.8425795360104189</v>
       </c>
       <c r="I14">
-        <v>0.1193500469026585</v>
+        <v>0.6170771351636084</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.873172173909637</v>
+        <v>0.6056037844423088</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.298458699893629</v>
+        <v>1.349340176174465</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992835598127044</v>
+        <v>1.294784318995141</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01389405296199087</v>
+        <v>0.005118839850808854</v>
       </c>
       <c r="E15">
-        <v>1.257212080245509</v>
+        <v>0.5695210484367692</v>
       </c>
       <c r="F15">
-        <v>3.261216002867826</v>
+        <v>1.205024533936381</v>
       </c>
       <c r="G15">
-        <v>3.550563175925561</v>
+        <v>1.164751527115129</v>
       </c>
       <c r="H15">
-        <v>1.691845936773149</v>
+        <v>0.8385985529104687</v>
       </c>
       <c r="I15">
-        <v>0.1212051200417594</v>
+        <v>0.6184817483106873</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.851182477601668</v>
+        <v>0.5998341140168293</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.293785751049867</v>
+        <v>1.348098237764987</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.800065838235128</v>
+        <v>1.241435704438118</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01262054430809201</v>
+        <v>0.004982543603123446</v>
       </c>
       <c r="E16">
-        <v>1.184372697109083</v>
+        <v>0.549647377046</v>
       </c>
       <c r="F16">
-        <v>3.02596904076529</v>
+        <v>1.155447251894856</v>
       </c>
       <c r="G16">
-        <v>3.290534952864675</v>
+        <v>1.108739463132565</v>
       </c>
       <c r="H16">
-        <v>1.573739189095903</v>
+        <v>0.8159641517485738</v>
       </c>
       <c r="I16">
-        <v>0.1322914352753077</v>
+        <v>0.6266787710055581</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.726037488418086</v>
+        <v>0.5667996134211819</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.267454155040284</v>
+        <v>1.341136982319171</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.68246659243016</v>
+        <v>1.208769140981303</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01187821988060023</v>
+        <v>0.004901326178693211</v>
       </c>
       <c r="E17">
-        <v>1.140132413468834</v>
+        <v>0.5374294239915685</v>
       </c>
       <c r="F17">
-        <v>2.884443670947746</v>
+        <v>1.125246062582562</v>
       </c>
       <c r="G17">
-        <v>3.134118710449059</v>
+        <v>1.074574231782663</v>
       </c>
       <c r="H17">
-        <v>1.502816222406722</v>
+        <v>0.8022374135012171</v>
       </c>
       <c r="I17">
-        <v>0.1394833910848394</v>
+        <v>0.6318389905210449</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.649979236937043</v>
+        <v>0.5465599224939695</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.251688913840965</v>
+        <v>1.337005968014509</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.615048385172656</v>
+        <v>1.190002923285476</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01146430891618522</v>
+        <v>0.004855478562461712</v>
       </c>
       <c r="E18">
-        <v>1.114832117614228</v>
+        <v>0.5303923789913654</v>
       </c>
       <c r="F18">
-        <v>2.803983857117231</v>
+        <v>1.107952581513871</v>
       </c>
       <c r="G18">
-        <v>3.04519772207081</v>
+        <v>1.054994523156751</v>
       </c>
       <c r="H18">
-        <v>1.462541477290642</v>
+        <v>0.7944000985766593</v>
       </c>
       <c r="I18">
-        <v>0.1437576720925247</v>
+        <v>0.6348552878772615</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.606471913149875</v>
+        <v>0.5349280674062129</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.242759761180167</v>
+        <v>1.334681369618409</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.592257987077744</v>
+        <v>1.183652934005011</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01132629610418689</v>
+        <v>0.004840102848753247</v>
       </c>
       <c r="E19">
-        <v>1.106289291076124</v>
+        <v>0.5280081065289437</v>
       </c>
       <c r="F19">
-        <v>2.776895763745415</v>
+        <v>1.102110533059317</v>
       </c>
       <c r="G19">
-        <v>3.015261649658839</v>
+        <v>1.048377315886938</v>
       </c>
       <c r="H19">
-        <v>1.448990140376196</v>
+        <v>0.7917564329430604</v>
       </c>
       <c r="I19">
-        <v>0.145227967604546</v>
+        <v>0.635884837069236</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.59178011257822</v>
+        <v>0.530991345583061</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.239759928248006</v>
+        <v>1.333903155517689</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.694961837920118</v>
+        <v>1.212244206691992</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01195586350734601</v>
+        <v>0.004909881918983672</v>
       </c>
       <c r="E20">
-        <v>1.144826422330695</v>
+        <v>0.5387310394632863</v>
       </c>
       <c r="F20">
-        <v>2.899409993791323</v>
+        <v>1.128452997941736</v>
       </c>
       <c r="G20">
-        <v>3.150659228504367</v>
+        <v>1.078203786138175</v>
       </c>
       <c r="H20">
-        <v>1.510311487122578</v>
+        <v>0.8036926426473485</v>
       </c>
       <c r="I20">
-        <v>0.1387034170040859</v>
+        <v>0.6312846779532535</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.658050492603252</v>
+        <v>0.5487134901289608</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.253352715524912</v>
+        <v>1.337440400770575</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.04282603693639</v>
+        <v>1.308576541994285</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01423597506920515</v>
+        <v>0.005154781045025203</v>
       </c>
       <c r="E21">
-        <v>1.276170630641133</v>
+        <v>0.5746439799387986</v>
       </c>
       <c r="F21">
-        <v>3.322887388542426</v>
+        <v>1.217890865879525</v>
       </c>
       <c r="G21">
-        <v>3.618738337663757</v>
+        <v>1.179274208988659</v>
       </c>
       <c r="H21">
-        <v>1.722850841600547</v>
+        <v>0.8444917060750754</v>
       </c>
       <c r="I21">
-        <v>0.1184687781041678</v>
+        <v>0.6164062018750034</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.88373310788333</v>
+        <v>0.6083710153037316</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.300707570479162</v>
+        <v>1.349938468581087</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.272602515751657</v>
+        <v>1.371731788082172</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01587072984171911</v>
+        <v>0.005322851382768334</v>
       </c>
       <c r="E22">
-        <v>1.363709712548768</v>
+        <v>0.598029896489237</v>
       </c>
       <c r="F22">
-        <v>3.609920529579938</v>
+        <v>1.27705003724526</v>
       </c>
       <c r="G22">
-        <v>3.936088400823536</v>
+        <v>1.245983718765672</v>
       </c>
       <c r="H22">
-        <v>1.867373063160784</v>
+        <v>0.8716805913802546</v>
       </c>
       <c r="I22">
-        <v>0.1066023120042114</v>
+        <v>0.6071140895847495</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.03387726281295</v>
+        <v>0.6474459494284304</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.332980818202373</v>
+        <v>1.358560849786457</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.149720734584491</v>
+        <v>1.338006947520228</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01498348250831327</v>
+        <v>0.005232401181721968</v>
       </c>
       <c r="E23">
-        <v>1.316811436348402</v>
+        <v>0.5855561815750576</v>
       </c>
       <c r="F23">
-        <v>3.45568672172908</v>
+        <v>1.245410227232981</v>
       </c>
       <c r="G23">
-        <v>3.765554119352146</v>
+        <v>1.210318775586614</v>
       </c>
       <c r="H23">
-        <v>1.789672049299412</v>
+        <v>0.8571209858846203</v>
       </c>
       <c r="I23">
-        <v>0.1128045649953293</v>
+        <v>0.612033857635236</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.953473047757058</v>
+        <v>0.6265830732639301</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.315630261105412</v>
+        <v>1.353917557546225</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.689312146778093</v>
+        <v>1.210673085111125</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01192072105828501</v>
+        <v>0.004906011239405927</v>
       </c>
       <c r="E24">
-        <v>1.142703847607507</v>
+        <v>0.5381426189206877</v>
       </c>
       <c r="F24">
-        <v>2.89264092006556</v>
+        <v>1.127002925908641</v>
       </c>
       <c r="G24">
-        <v>3.143178152862362</v>
+        <v>1.076562670664259</v>
       </c>
       <c r="H24">
-        <v>1.506921331637415</v>
+        <v>0.8030345642927728</v>
       </c>
       <c r="I24">
-        <v>0.1390556100916118</v>
+        <v>0.6315351281363935</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.65440079940737</v>
+        <v>0.5477398490885719</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.252600092835038</v>
+        <v>1.337243836764472</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.200968037085204</v>
+        <v>1.074194797741995</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009105189842237849</v>
+        <v>0.00458690071072354</v>
       </c>
       <c r="E25">
-        <v>0.9603125244366453</v>
+        <v>0.4866320816636147</v>
       </c>
       <c r="F25">
-        <v>2.320536878452941</v>
+        <v>1.002232136738485</v>
       </c>
       <c r="G25">
-        <v>2.510941263950627</v>
+        <v>0.9349961907399518</v>
       </c>
       <c r="H25">
-        <v>1.221331097989264</v>
+        <v>0.7469037561691607</v>
       </c>
       <c r="I25">
-        <v>0.1725743666584112</v>
+        <v>0.6544149851221244</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.34073743562746</v>
+        <v>0.4630563351569776</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.189866252421595</v>
+        <v>1.321228005521021</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9744635030973541</v>
+        <v>1.846411605063253</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004378622681091571</v>
+        <v>0.007331917236349739</v>
       </c>
       <c r="E2">
-        <v>0.4483793404404963</v>
+        <v>0.8289633014957118</v>
       </c>
       <c r="F2">
-        <v>0.9127886060284141</v>
+        <v>1.921296576053464</v>
       </c>
       <c r="G2">
-        <v>0.8329604128828976</v>
+        <v>2.069683947460959</v>
       </c>
       <c r="H2">
-        <v>0.7074198953251312</v>
+        <v>1.023326624740946</v>
       </c>
       <c r="I2">
-        <v>0.6728402859271183</v>
+        <v>0.201123478581537</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4009955759892705</v>
+        <v>1.11514635863611</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.311147546546579</v>
+        <v>1.147749718617746</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9073526923759516</v>
+        <v>1.608352841124741</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004253294322388967</v>
+        <v>0.006268969010292835</v>
       </c>
       <c r="E3">
-        <v>0.4222477322751601</v>
+        <v>0.74110543117866</v>
       </c>
       <c r="F3">
-        <v>0.8536296548066389</v>
+        <v>1.661004812973346</v>
       </c>
       <c r="G3">
-        <v>0.7651171033127184</v>
+        <v>1.781887893869879</v>
       </c>
       <c r="H3">
-        <v>0.6817852656444643</v>
+        <v>0.8949653742329247</v>
       </c>
       <c r="I3">
-        <v>0.6863084089886957</v>
+        <v>0.2226205774461469</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3591094937132766</v>
+        <v>0.9646310918586778</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.305393740739518</v>
+        <v>1.121548775036018</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8663852883026948</v>
+        <v>1.463024092165028</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004183880374812432</v>
+        <v>0.005671382087893306</v>
       </c>
       <c r="E4">
-        <v>0.406099570183585</v>
+        <v>0.6875461858813736</v>
       </c>
       <c r="F4">
-        <v>0.8180078375319937</v>
+        <v>1.505272004543343</v>
       </c>
       <c r="G4">
-        <v>0.7240857060200199</v>
+        <v>1.609622276359772</v>
       </c>
       <c r="H4">
-        <v>0.6665915257456732</v>
+        <v>0.8185050796618611</v>
       </c>
       <c r="I4">
-        <v>0.6950605011788689</v>
+        <v>0.2368009310284664</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.333474467128184</v>
+        <v>0.8731052313432599</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.302396190758202</v>
+        <v>1.106556654082794</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.84975164757887</v>
+        <v>1.403978635549294</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004157450779707972</v>
+        <v>0.005439935070196356</v>
       </c>
       <c r="E5">
-        <v>0.3994930833390313</v>
+        <v>0.6657933635866371</v>
       </c>
       <c r="F5">
-        <v>0.8036660063232972</v>
+        <v>1.442706146501067</v>
       </c>
       <c r="G5">
-        <v>0.7075195461595172</v>
+        <v>1.540391865085638</v>
       </c>
       <c r="H5">
-        <v>0.6605361874273399</v>
+        <v>0.7878692085552643</v>
       </c>
       <c r="I5">
-        <v>0.6987481819951631</v>
+        <v>0.2428152162187081</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.323048803636965</v>
+        <v>0.8359948635935837</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.301309910960228</v>
+        <v>1.100714566734169</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8469933477251743</v>
+        <v>1.394183939436658</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00415317321596298</v>
+        <v>0.005402184316164238</v>
       </c>
       <c r="E6">
-        <v>0.3983945117879841</v>
+        <v>0.6621850816043207</v>
       </c>
       <c r="F6">
-        <v>0.801295023036019</v>
+        <v>1.432367660066518</v>
       </c>
       <c r="G6">
-        <v>0.7047780014643195</v>
+        <v>1.528950670086061</v>
       </c>
       <c r="H6">
-        <v>0.6595389002716558</v>
+        <v>0.7828117724710069</v>
       </c>
       <c r="I6">
-        <v>0.6993678281274223</v>
+        <v>0.2438278088862118</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3213188847081483</v>
+        <v>0.829843000188049</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.301137722497202</v>
+        <v>1.099760411231188</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8661607134830831</v>
+        <v>1.462227110140162</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004183516466351733</v>
+        <v>0.005668214035157604</v>
       </c>
       <c r="E7">
-        <v>0.4060105779893703</v>
+        <v>0.6872525539259939</v>
       </c>
       <c r="F7">
-        <v>0.8178137155276062</v>
+        <v>1.504424754677146</v>
       </c>
       <c r="G7">
-        <v>0.7238616669987152</v>
+        <v>1.608684872420412</v>
       </c>
       <c r="H7">
-        <v>0.6665093111498663</v>
+        <v>0.8180898863073764</v>
       </c>
       <c r="I7">
-        <v>0.6951097443734504</v>
+        <v>0.2368811015909742</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3333337788231461</v>
+        <v>0.8726040366224765</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.302380992354756</v>
+        <v>1.106476793596201</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9512745869183732</v>
+        <v>1.764133055277512</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004333821685982286</v>
+        <v>0.006952857228931464</v>
       </c>
       <c r="E8">
-        <v>0.4393905719355971</v>
+        <v>0.7985744722576626</v>
       </c>
       <c r="F8">
-        <v>0.8922435600163254</v>
+        <v>1.830616831439926</v>
       </c>
       <c r="G8">
-        <v>0.8094367925291124</v>
+        <v>1.969436599552665</v>
       </c>
       <c r="H8">
-        <v>0.6984670916660889</v>
+        <v>0.978535162378023</v>
       </c>
       <c r="I8">
-        <v>0.6773837956157704</v>
+        <v>0.2083252143519179</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3865359103829462</v>
+        <v>1.063040457884455</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.309052905668224</v>
+        <v>1.138483228489761</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.120050785307001</v>
+        <v>2.364559502347163</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004690138858649107</v>
+        <v>0.009999863680906884</v>
       </c>
       <c r="E9">
-        <v>0.5040334991671216</v>
+        <v>1.021192344439768</v>
       </c>
       <c r="F9">
-        <v>1.043877345674346</v>
+        <v>2.509329458289827</v>
       </c>
       <c r="G9">
-        <v>0.9823328087415177</v>
+        <v>2.719574445888981</v>
       </c>
       <c r="H9">
-        <v>0.7655212618909104</v>
+        <v>1.31535798936244</v>
       </c>
       <c r="I9">
-        <v>0.6464620844305626</v>
+        <v>0.1606446724249366</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4915356429366113</v>
+        <v>1.445421274129529</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.326358302800884</v>
+        <v>1.210337193835073</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.245166245880966</v>
+        <v>2.813516223036743</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.004991929501759529</v>
+        <v>0.01270710591801461</v>
       </c>
       <c r="E10">
-        <v>0.5510402301691499</v>
+        <v>1.189441792172644</v>
       </c>
       <c r="F10">
-        <v>1.158903968361727</v>
+        <v>3.042251624946346</v>
       </c>
       <c r="G10">
-        <v>1.112647672837909</v>
+        <v>3.30853150325558</v>
       </c>
       <c r="H10">
-        <v>0.8175383477593527</v>
+        <v>1.581905377144068</v>
       </c>
       <c r="I10">
-        <v>0.626096502148286</v>
+        <v>0.131489862014833</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5691103904212582</v>
+        <v>1.734750333900763</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.341615317907696</v>
+        <v>1.269272153594954</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.302322796915007</v>
+        <v>3.020150994503922</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.005138449496261188</v>
+        <v>0.01408028230192926</v>
       </c>
       <c r="E11">
-        <v>0.5723218452618397</v>
+        <v>1.267567593213258</v>
       </c>
       <c r="F11">
-        <v>1.21205451038665</v>
+        <v>3.294879880544954</v>
       </c>
       <c r="G11">
-        <v>1.172687172392443</v>
+        <v>3.587776792260314</v>
       </c>
       <c r="H11">
-        <v>0.8418175546848943</v>
+        <v>1.708768118107486</v>
       </c>
       <c r="I11">
-        <v>0.6173451677675015</v>
+        <v>0.1197029849611173</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6045003337608534</v>
+        <v>1.868963528634822</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.349102077971622</v>
+        <v>1.297563327904683</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.324000521203118</v>
+        <v>3.098809253461297</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.005195304905068809</v>
+        <v>0.01462466518587036</v>
       </c>
       <c r="E12">
-        <v>0.5803660988974997</v>
+        <v>1.297437569167286</v>
       </c>
       <c r="F12">
-        <v>1.23230245313178</v>
+        <v>3.392279436463411</v>
       </c>
       <c r="G12">
-        <v>1.195534819822853</v>
+        <v>3.695452394815277</v>
       </c>
       <c r="H12">
-        <v>0.8511014210631345</v>
+        <v>1.75775752957685</v>
       </c>
       <c r="I12">
-        <v>0.6141052908263411</v>
+        <v>0.1154707553786807</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.617916359154691</v>
+        <v>1.920234128338819</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.352015116055796</v>
+        <v>1.308502588157438</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.319330346708512</v>
+        <v>3.081849426414408</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.005182998378231218</v>
+        <v>0.01450626618816742</v>
       </c>
       <c r="E13">
-        <v>0.5786342751075892</v>
+        <v>1.29099082135626</v>
       </c>
       <c r="F13">
-        <v>1.227936276252535</v>
+        <v>3.371220845522828</v>
       </c>
       <c r="G13">
-        <v>1.190609142692921</v>
+        <v>3.67217131016946</v>
       </c>
       <c r="H13">
-        <v>0.8490979582183797</v>
+        <v>1.747162061679063</v>
       </c>
       <c r="I13">
-        <v>0.6147997577506406</v>
+        <v>0.1163716337655174</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6150263256179187</v>
+        <v>1.909170920768048</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.351384282941297</v>
+        <v>1.306136353297745</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.304105564263239</v>
+        <v>3.026613635735146</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.005143099286691211</v>
+        <v>0.01412455463962203</v>
       </c>
       <c r="E14">
-        <v>0.5729839438815532</v>
+        <v>1.270018930180981</v>
       </c>
       <c r="F14">
-        <v>1.213717881975356</v>
+        <v>3.30285655544597</v>
       </c>
       <c r="G14">
-        <v>1.174564600861288</v>
+        <v>3.596594721833526</v>
       </c>
       <c r="H14">
-        <v>0.8425795360104189</v>
+        <v>1.712778588250501</v>
       </c>
       <c r="I14">
-        <v>0.6170771351636084</v>
+        <v>0.1193500469026603</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6056037844423088</v>
+        <v>1.87317217390958</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.349340176174465</v>
+        <v>1.298458699893658</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294784318995141</v>
+        <v>2.992835598127044</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.005118839850808854</v>
+        <v>0.01389405296188428</v>
       </c>
       <c r="E15">
-        <v>0.5695210484367692</v>
+        <v>1.257212080245495</v>
       </c>
       <c r="F15">
-        <v>1.205024533936381</v>
+        <v>3.261216002867826</v>
       </c>
       <c r="G15">
-        <v>1.164751527115129</v>
+        <v>3.550563175925532</v>
       </c>
       <c r="H15">
-        <v>0.8385985529104687</v>
+        <v>1.691845936773035</v>
       </c>
       <c r="I15">
-        <v>0.6184817483106873</v>
+        <v>0.1212051200417701</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5998341140168293</v>
+        <v>1.851182477601782</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.348098237764987</v>
+        <v>1.29378575104991</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.241435704438118</v>
+        <v>2.800065838235014</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.004982543603123446</v>
+        <v>0.01262054430797122</v>
       </c>
       <c r="E16">
-        <v>0.549647377046</v>
+        <v>1.184372697109097</v>
       </c>
       <c r="F16">
-        <v>1.155447251894856</v>
+        <v>3.02596904076529</v>
       </c>
       <c r="G16">
-        <v>1.108739463132565</v>
+        <v>3.290534952864618</v>
       </c>
       <c r="H16">
-        <v>0.8159641517485738</v>
+        <v>1.573739189095932</v>
       </c>
       <c r="I16">
-        <v>0.6266787710055581</v>
+        <v>0.1322914352752953</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5667996134211819</v>
+        <v>1.726037488418058</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.341136982319171</v>
+        <v>1.267454155040355</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.208769140981303</v>
+        <v>2.68246659243033</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.004901326178693211</v>
+        <v>0.01187821988060023</v>
       </c>
       <c r="E17">
-        <v>0.5374294239915685</v>
+        <v>1.140132413468791</v>
       </c>
       <c r="F17">
-        <v>1.125246062582562</v>
+        <v>2.884443670947718</v>
       </c>
       <c r="G17">
-        <v>1.074574231782663</v>
+        <v>3.134118710448945</v>
       </c>
       <c r="H17">
-        <v>0.8022374135012171</v>
+        <v>1.502816222406722</v>
       </c>
       <c r="I17">
-        <v>0.6318389905210449</v>
+        <v>0.1394833910848394</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5465599224939695</v>
+        <v>1.649979236936986</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.337005968014509</v>
+        <v>1.251688913840951</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.190002923285476</v>
+        <v>2.615048385172656</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.004855478562461712</v>
+        <v>0.01146430891595429</v>
       </c>
       <c r="E18">
-        <v>0.5303923789913654</v>
+        <v>1.114832117614213</v>
       </c>
       <c r="F18">
-        <v>1.107952581513871</v>
+        <v>2.803983857117203</v>
       </c>
       <c r="G18">
-        <v>1.054994523156751</v>
+        <v>3.045197722070782</v>
       </c>
       <c r="H18">
-        <v>0.7944000985766593</v>
+        <v>1.462541477290642</v>
       </c>
       <c r="I18">
-        <v>0.6348552878772615</v>
+        <v>0.1437576720925104</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5349280674062129</v>
+        <v>1.606471913149676</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.334681369618409</v>
+        <v>1.242759761180167</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.183652934005011</v>
+        <v>2.592257987077687</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.004840102848753247</v>
+        <v>0.01132629610429703</v>
       </c>
       <c r="E19">
-        <v>0.5280081065289437</v>
+        <v>1.106289291076095</v>
       </c>
       <c r="F19">
-        <v>1.102110533059317</v>
+        <v>2.776895763745415</v>
       </c>
       <c r="G19">
-        <v>1.048377315886938</v>
+        <v>3.015261649658896</v>
       </c>
       <c r="H19">
-        <v>0.7917564329430604</v>
+        <v>1.448990140376196</v>
       </c>
       <c r="I19">
-        <v>0.635884837069236</v>
+        <v>0.145227967604546</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.530991345583061</v>
+        <v>1.59178011257822</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.333903155517689</v>
+        <v>1.239759928248006</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.212244206691992</v>
+        <v>2.694961837920061</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.004909881918983672</v>
+        <v>0.01195586350722877</v>
       </c>
       <c r="E20">
-        <v>0.5387310394632863</v>
+        <v>1.144826422330709</v>
       </c>
       <c r="F20">
-        <v>1.128452997941736</v>
+        <v>2.899409993791323</v>
       </c>
       <c r="G20">
-        <v>1.078203786138175</v>
+        <v>3.150659228504423</v>
       </c>
       <c r="H20">
-        <v>0.8036926426473485</v>
+        <v>1.510311487122493</v>
       </c>
       <c r="I20">
-        <v>0.6312846779532535</v>
+        <v>0.1387034170040966</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5487134901289608</v>
+        <v>1.658050492603195</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.337440400770575</v>
+        <v>1.253352715524855</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.308576541994285</v>
+        <v>3.042826036936219</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.005154781045025203</v>
+        <v>0.01423597506954621</v>
       </c>
       <c r="E21">
-        <v>0.5746439799387986</v>
+        <v>1.276170630641147</v>
       </c>
       <c r="F21">
-        <v>1.217890865879525</v>
+        <v>3.322887388542455</v>
       </c>
       <c r="G21">
-        <v>1.179274208988659</v>
+        <v>3.618738337663814</v>
       </c>
       <c r="H21">
-        <v>0.8444917060750754</v>
+        <v>1.72285084160066</v>
       </c>
       <c r="I21">
-        <v>0.6164062018750034</v>
+        <v>0.118468778104166</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6083710153037316</v>
+        <v>1.883733107883415</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.349938468581087</v>
+        <v>1.300707570479204</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.371731788082172</v>
+        <v>3.272602515751828</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.005322851382768334</v>
+        <v>0.01587072984161253</v>
       </c>
       <c r="E22">
-        <v>0.598029896489237</v>
+        <v>1.363709712548754</v>
       </c>
       <c r="F22">
-        <v>1.27705003724526</v>
+        <v>3.609920529579909</v>
       </c>
       <c r="G22">
-        <v>1.245983718765672</v>
+        <v>3.936088400823451</v>
       </c>
       <c r="H22">
-        <v>0.8716805913802546</v>
+        <v>1.867373063160784</v>
       </c>
       <c r="I22">
-        <v>0.6071140895847495</v>
+        <v>0.1066023120042097</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6474459494284304</v>
+        <v>2.03387726281295</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.358560849786457</v>
+        <v>1.332980818202373</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.338006947520228</v>
+        <v>3.149720734584662</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.005232401181721968</v>
+        <v>0.01498348250841985</v>
       </c>
       <c r="E23">
-        <v>0.5855561815750576</v>
+        <v>1.316811436348402</v>
       </c>
       <c r="F23">
-        <v>1.245410227232981</v>
+        <v>3.45568672172908</v>
       </c>
       <c r="G23">
-        <v>1.210318775586614</v>
+        <v>3.765554119352117</v>
       </c>
       <c r="H23">
-        <v>0.8571209858846203</v>
+        <v>1.78967204929944</v>
       </c>
       <c r="I23">
-        <v>0.612033857635236</v>
+        <v>0.1128045649953151</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6265830732639301</v>
+        <v>1.953473047757001</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.353917557546225</v>
+        <v>1.315630261105426</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.210673085111125</v>
+        <v>2.68931214677815</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.004906011239405927</v>
+        <v>0.01192072105840225</v>
       </c>
       <c r="E24">
-        <v>0.5381426189206877</v>
+        <v>1.142703847607464</v>
       </c>
       <c r="F24">
-        <v>1.127002925908641</v>
+        <v>2.89264092006556</v>
       </c>
       <c r="G24">
-        <v>1.076562670664259</v>
+        <v>3.143178152862305</v>
       </c>
       <c r="H24">
-        <v>0.8030345642927728</v>
+        <v>1.506921331637443</v>
       </c>
       <c r="I24">
-        <v>0.6315351281363935</v>
+        <v>0.139055610091626</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5477398490885719</v>
+        <v>1.654400799407512</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.337243836764472</v>
+        <v>1.252600092835024</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.074194797741995</v>
+        <v>2.200968037085033</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00458690071072354</v>
+        <v>0.00910518984234443</v>
       </c>
       <c r="E25">
-        <v>0.4866320816636147</v>
+        <v>0.9603125244366453</v>
       </c>
       <c r="F25">
-        <v>1.002232136738485</v>
+        <v>2.320536878452941</v>
       </c>
       <c r="G25">
-        <v>0.9349961907399518</v>
+        <v>2.510941263950599</v>
       </c>
       <c r="H25">
-        <v>0.7469037561691607</v>
+        <v>1.221331097989349</v>
       </c>
       <c r="I25">
-        <v>0.6544149851221244</v>
+        <v>0.172574366658413</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4630563351569776</v>
+        <v>1.340737435627375</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.321228005521021</v>
+        <v>1.189866252421638</v>
       </c>
       <c r="O25">
         <v>0</v>
